--- a/CDM/Dash_eng/join_table/join_table_visit.xlsx
+++ b/CDM/Dash_eng/join_table/join_table_visit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsj28\Desktop\CDM-dash\응급실\_data\join_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E30ACBF-F203-4EDF-8BE5-0025022F6F92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FB7DCC-2BD3-4F21-AC75-721D26B567BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="2625" windowWidth="21600" windowHeight="12975" xr2:uid="{3624DD4E-8188-47CD-B6B9-A8E8FA3D6304}"/>
+    <workbookView xWindow="555" yWindow="2235" windowWidth="18000" windowHeight="11145" xr2:uid="{3624DD4E-8188-47CD-B6B9-A8E8FA3D6304}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,12 +414,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H4:I5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
